--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED4CFC-7C24-4AD0-B9A3-1B78C94CADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2201862-F533-41BC-8B12-7B664E6A72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Data</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>Sistemare conteggio</t>
+  </si>
+  <si>
+    <t>Creati asset per il giardino</t>
+  </si>
+  <si>
+    <t>Sfondo e panchina</t>
+  </si>
+  <si>
+    <t>Ink</t>
+  </si>
+  <si>
+    <t>Settaggio storia spettro Uno</t>
+  </si>
+  <si>
+    <t>Spettro Uno</t>
+  </si>
+  <si>
+    <t>Tematica, intro, oggetti, domande</t>
   </si>
 </sst>
 </file>
@@ -140,7 +158,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="165" formatCode="mm:ss.0;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -223,8 +241,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -505,17 +523,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
@@ -596,7 +614,7 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(D:D)</f>
-        <v>1.09375</v>
+        <v>1.28125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,6 +763,51 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45650</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2201862-F533-41BC-8B12-7B664E6A72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18213686-1985-4DC1-9275-AEABDEEDECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Data</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Tematica, intro, oggetti, domande</t>
+  </si>
+  <si>
+    <t>Storia più interessante</t>
+  </si>
+  <si>
+    <t>Struttura più reattiva e sensata</t>
   </si>
 </sst>
 </file>
@@ -523,23 +529,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -576,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -596,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -614,10 +620,10 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(D:D)</f>
-        <v>1.28125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4270833333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -631,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -648,7 +654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -668,12 +674,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -684,7 +690,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -698,7 +704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -715,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -729,7 +735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -743,7 +749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -760,12 +766,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -779,7 +785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -796,7 +802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -808,6 +814,37 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>45652</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18213686-1985-4DC1-9275-AEABDEEDECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1001A-89FE-4641-9E1E-026B5DBA852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Data</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Struttura più reattiva e sensata</t>
+  </si>
+  <si>
+    <t>Sfondi e icone</t>
+  </si>
+  <si>
+    <t>Sfondi e icone di tutte e tre le scene</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -620,7 +626,7 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(D:D)</f>
-        <v>1.4270833333333335</v>
+        <v>1.6250000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -841,10 +847,24 @@
         <v>34</v>
       </c>
       <c r="D20" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1001A-89FE-4641-9E1E-026B5DBA852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D7285-03AD-43B5-899B-84A6A7093140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Data</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Risoluzione problemi vari</t>
-  </si>
-  <si>
-    <t>Sistemare conteggio</t>
   </si>
   <si>
     <t>Creati asset per il giardino</t>
@@ -170,10 +167,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -253,8 +258,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -538,7 +544,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +593,7 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -604,7 +611,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -624,7 +631,7 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <f>SUM(D:D)</f>
         <v>1.6250000000000002</v>
       </c>
@@ -676,9 +683,7 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
@@ -782,13 +787,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -858,13 +863,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D7285-03AD-43B5-899B-84A6A7093140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917866C4-ED81-44D9-9727-1AC6AE4EBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Data</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>Sfondi e icone di tutte e tre le scene</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Icone, problemi vari</t>
+  </si>
+  <si>
+    <t>Icone mentore, icona prosegui testo, correzioni varie</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -260,7 +269,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -541,23 +550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -595,7 +604,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -615,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -633,10 +642,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.6250000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.7083333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -650,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -667,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -685,12 +694,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -701,7 +710,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -715,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -732,7 +741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -746,7 +755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -760,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -777,12 +786,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -796,7 +805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -813,7 +822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -827,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -844,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -858,7 +867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -870,6 +879,23 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45653</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917866C4-ED81-44D9-9727-1AC6AE4EBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AEDDB-D91B-4376-825F-25E036F4D743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -167,7 +167,13 @@
     <t>Icone, problemi vari</t>
   </si>
   <si>
-    <t>Icone mentore, icona prosegui testo, correzioni varie</t>
+    <t>Icone mentore, icone anime, animelle, spettri, icona prosegui testo, correzioni varie</t>
+  </si>
+  <si>
+    <t>Correzione problemi vari</t>
+  </si>
+  <si>
+    <t>Sistemazione INK</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -270,6 +276,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +657,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.7083333333333335</v>
+        <v>1.791666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,17 +903,44 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AEDDB-D91B-4376-825F-25E036F4D743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097D671-67CD-4AE0-A2AB-CF8C1EC583A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Data</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Sistemazione INK</t>
+  </si>
+  <si>
+    <t>Settaggio parte audio + bug</t>
+  </si>
+  <si>
+    <t>Nomi</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +663,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.791666666666667</v>
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,6 +939,31 @@
       </c>
       <c r="E24" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45654</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097D671-67CD-4AE0-A2AB-CF8C1EC583A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB512DB3-E1AF-4492-8AB3-6D189ED09E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Nomi</t>
+  </si>
+  <si>
+    <t>Creazione sistema salvataggio/load</t>
+  </si>
+  <si>
+    <t>Creazione menu iniziale</t>
+  </si>
+  <si>
+    <t>Per lo più preso da chatGPT, sob</t>
+  </si>
+  <si>
+    <t>funge, manca però da capire come chiamare il load</t>
   </si>
 </sst>
 </file>
@@ -571,17 +583,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
@@ -663,7 +675,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.916666666666667</v>
+        <v>1.9895833333333337</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,6 +976,34 @@
       </c>
       <c r="D26" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB512DB3-E1AF-4492-8AB3-6D189ED09E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92E22C-50CC-43B5-9377-0CD326BCDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -585,21 +585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -637,7 +637,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -675,10 +675,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9895833333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0312500000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -692,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -709,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -727,12 +727,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -743,7 +743,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -757,7 +757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -774,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -819,12 +819,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -838,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -869,7 +869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -886,7 +886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -900,7 +900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -931,7 +931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -953,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -967,7 +967,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -978,7 +978,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -986,13 +986,13 @@
         <v>48</v>
       </c>
       <c r="D27" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92E22C-50CC-43B5-9377-0CD326BCDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E13481-3D4D-49F5-9396-0E8E3219EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>funge, manca però da capire come chiamare il load</t>
+  </si>
+  <si>
+    <t>sistemazione cose varie</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -303,6 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -583,23 +587,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -637,7 +641,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -657,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -675,10 +679,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.0312500000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.15625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -692,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -709,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -727,12 +731,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -743,7 +747,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -757,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -774,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -788,7 +792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -802,7 +806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -819,12 +823,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -838,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -855,7 +859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -869,7 +873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -886,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -900,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -914,7 +918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -931,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -939,7 +943,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -953,7 +957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -967,7 +971,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -978,7 +982,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -992,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1006,11 +1010,47 @@
         <v>51</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45655</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E13481-3D4D-49F5-9396-0E8E3219EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFA70C-4596-4241-A6FE-1145B4B0E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>sistemazione cose varie</t>
+  </si>
+  <si>
+    <t>Funghi e simili per il giardino</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -306,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -587,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +681,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.15625</v>
+        <v>2.2604166666666665</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,8 +1044,19 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45659</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFA70C-4596-4241-A6FE-1145B4B0E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B436D-CC32-468C-8FAB-196452FF020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$F$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -198,6 +201,15 @@
   </si>
   <si>
     <t>Funghi e simili per il giardino</t>
+  </si>
+  <si>
+    <t>Fungo nuovo + blocco strade per aree secondo tier</t>
+  </si>
+  <si>
+    <t>Risoluzione problema con funghi etc</t>
+  </si>
+  <si>
+    <t>Scritto fungo per Spettro Uno</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -308,6 +320,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,20 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +697,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.2604166666666665</v>
+        <v>2.3854166666666661</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,7 +1035,7 @@
       <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="6">
@@ -1030,7 +1046,9 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1039,7 +1057,9 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D31" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1058,12 +1078,54 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45660</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A1:F35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="3">
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B436D-CC32-468C-8FAB-196452FF020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF322E15-9823-4E19-9C34-210E7DCDB285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Data</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Scritto fungo per Spettro Uno</t>
+  </si>
+  <si>
+    <t>Materiale per mentore</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -313,6 +316,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -320,10 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +610,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +699,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.3854166666666661</v>
+        <v>2.4687499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,13 +945,13 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>0.125</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -957,9 +959,9 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1035,7 +1037,7 @@
       <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="6">
@@ -1046,7 +1048,7 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="6">
@@ -1057,7 +1059,7 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="6">
@@ -1118,7 +1120,15 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="13"/>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF322E15-9823-4E19-9C34-210E7DCDB285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D946D4A-DC2A-456E-A8F5-4E550BEE1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Data</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Materiale per mentore</t>
+  </si>
+  <si>
+    <t>Parte finale mentore + formattazione e typo</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +702,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.4687499999999996</v>
+        <v>2.5312499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,6 +1131,20 @@
       </c>
       <c r="D36" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45661</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D946D4A-DC2A-456E-A8F5-4E550BEE1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8B823-43A3-49C9-BB9C-B7D4149F8384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Data</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Parte finale mentore + formattazione e typo</t>
+  </si>
+  <si>
+    <t>Domande e contenuti riscrittura spettro uno</t>
+  </si>
+  <si>
+    <t>Testing e correzione piccoli bug etc</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +242,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -307,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -330,6 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +717,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.5312499999999996</v>
+        <v>2.6354166666666661</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,6 +1161,32 @@
       <c r="D37" s="6">
         <v>6.25E-2</v>
       </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45662</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E39" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8B823-43A3-49C9-BB9C-B7D4149F8384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90B584-F961-4E1C-BAC1-DC674F7ACD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Data</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Testing e correzione piccoli bug etc</t>
+  </si>
+  <si>
+    <t>Risoluzione bug ink per diverse formule anime e animelle</t>
   </si>
 </sst>
 </file>
@@ -335,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,7 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -625,23 +628,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -661,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -679,7 +682,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -699,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -717,10 +720,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.6354166666666661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.6979166666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -734,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -751,7 +754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -769,12 +772,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -785,7 +788,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -799,7 +802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -816,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -830,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -844,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -861,12 +864,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -880,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -897,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -911,7 +914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -928,7 +931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -942,7 +945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -956,32 +959,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="13">
         <v>0.125</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -995,7 +998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1189,21 @@
       <c r="D39" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6.25E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90B584-F961-4E1C-BAC1-DC674F7ACD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF42A1-5E1E-4F0D-AAFB-7F0D51CEE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17325" yWindow="6315" windowWidth="21900" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>Risoluzione bug ink per diverse formule anime e animelle</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Con Mattia, test e feedback</t>
+  </si>
+  <si>
+    <t>Correzione bug, sistemazione piccoli problemi</t>
+  </si>
+  <si>
+    <t>Sistemazione tutorial mentore</t>
   </si>
 </sst>
 </file>
@@ -631,20 +643,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -664,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -682,7 +694,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -702,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -720,10 +732,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.6979166666666661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.8645833333333326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -737,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -754,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -772,12 +784,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -788,7 +800,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -802,7 +814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -819,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -833,7 +845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -847,7 +859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -864,12 +876,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -883,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -900,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -914,7 +926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -931,7 +943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -945,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -959,7 +971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -976,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -984,7 +996,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1203,43 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45297</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45815</v>
       </c>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF42A1-5E1E-4F0D-AAFB-7F0D51CEE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD66BD1-6D80-42B0-B023-1FF31073A058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17325" yWindow="6315" windowWidth="21900" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8625" yWindow="4335" windowWidth="21900" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Data</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Sistemazione tutorial mentore</t>
+  </si>
+  <si>
+    <t>Con Gabri test e feedback</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.8645833333333326</v>
+        <v>2.9062499999999991</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,6 +1254,20 @@
       </c>
       <c r="D43" s="6">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45816</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD66BD1-6D80-42B0-B023-1FF31073A058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CCAB1-C724-4078-9954-073861EA8C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="4335" windowWidth="21900" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Prot. 2.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Data</t>
   </si>
@@ -240,6 +242,9 @@
   </si>
   <si>
     <t>Con Gabri test e feedback</t>
+  </si>
+  <si>
+    <t>Riflessione su stato primo prototipo e obiettivi prototipo 1.0</t>
   </si>
 </sst>
 </file>
@@ -643,23 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -697,7 +702,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -717,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -735,10 +740,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.9062499999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.9687499999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -752,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -769,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -787,12 +792,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -803,7 +808,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -817,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -834,7 +839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -848,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -862,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -879,12 +884,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -898,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -915,7 +920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -929,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -946,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -960,7 +965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -974,7 +979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -991,7 +996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1004,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1211,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1242,9 +1247,9 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45815</v>
+        <v>45664</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1256,9 +1261,9 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45816</v>
+        <v>45665</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -1268,6 +1273,20 @@
       </c>
       <c r="D44" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>45666</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1280,4 +1299,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="9">
+        <f>SUM(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CCAB1-C724-4078-9954-073861EA8C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6BCAF-F853-4DB4-B4BD-3F7A5F25B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>Riflessione su stato primo prototipo e obiettivi prototipo 1.0</t>
+  </si>
+  <si>
+    <t>Controllo concorsi, eventi etc</t>
+  </si>
+  <si>
+    <t>Risoluzione piccoli problemi</t>
+  </si>
+  <si>
+    <t>Correzione typo</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1315,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,15 +1345,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45668</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6BCAF-F853-4DB4-B4BD-3F7A5F25B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77926EF9-DEF6-491C-B65D-E7FC6BEE84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
     <sheet name="Prot. 2.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Data</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>Correzione typo</t>
+  </si>
+  <si>
+    <t>GEstione</t>
+  </si>
+  <si>
+    <t>Pianificazione prossime due milestones</t>
+  </si>
+  <si>
+    <t>Ricerca di "mercato"</t>
   </si>
 </sst>
 </file>
@@ -660,20 +669,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -711,7 +720,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -731,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -752,7 +761,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -766,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -783,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -801,12 +810,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -817,7 +826,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -831,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -848,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -862,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -876,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -893,12 +902,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -912,7 +921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -929,7 +938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -943,7 +952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -960,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -974,7 +983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -988,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1022,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1229,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1299,7 +1308,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
@@ -1315,20 +1324,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1385,29 +1394,51 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.14583333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45670</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77926EF9-DEF6-491C-B65D-E7FC6BEE84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61760B72-0376-470E-9ABF-47CAA4F6F1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -256,13 +256,16 @@
     <t>Correzione typo</t>
   </si>
   <si>
-    <t>GEstione</t>
-  </si>
-  <si>
     <t>Pianificazione prossime due milestones</t>
   </si>
   <si>
     <t>Ricerca di "mercato"</t>
+  </si>
+  <si>
+    <t>Riflessione su pillars, obiettivi, scopo delle varie arre di gioco</t>
+  </si>
+  <si>
+    <t>Riordino Miro e riflessione su palette, contenuti, etc.</t>
   </si>
 </sst>
 </file>
@@ -672,17 +675,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -720,7 +723,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -740,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -761,7 +764,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -775,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -792,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -810,12 +813,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -826,7 +829,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -840,7 +843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -857,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -871,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -885,7 +888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -902,12 +905,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -921,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -938,7 +941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -952,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -969,7 +972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -983,7 +986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1232,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1324,20 +1327,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1394,51 +1397,73 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.14583333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.28124999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>45671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61760B72-0376-470E-9ABF-47CAA4F6F1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E046D6A-E4CF-475F-8CE2-D22A769F95DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.28124999999999994</v>
+        <v>0.34374999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="6">
-        <v>5.2083333333333336E-2</v>
+        <v>0.11458333333333333</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E046D6A-E4CF-475F-8CE2-D22A769F95DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003085F7-A5B3-4F84-AADD-BE86AA4DF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>Data</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Riordino Miro e riflessione su palette, contenuti, etc.</t>
+  </si>
+  <si>
+    <t>Studio palette, assets etc con Gabri</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1400,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.34374999999999994</v>
+        <v>0.46874999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,6 +1445,20 @@
       </c>
       <c r="D8" s="6">
         <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>45672</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003085F7-A5B3-4F84-AADD-BE86AA4DF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D9FD6-FA5C-4F77-9BB2-64D7AF142D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Data</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Studio palette, assets etc con Gabri</t>
+  </si>
+  <si>
+    <t>Cambio struttura file ink dopo cancellazione anime, animelle, e passaggio da spettri a persone (quindi anche randomizzate). Cambiata anche gestione storia persone (più semplificata).</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -391,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,7 +1336,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,7 +1406,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.46874999999999994</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1459,6 +1465,20 @@
       </c>
       <c r="D9" s="6">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>45673</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D9FD6-FA5C-4F77-9BB2-64D7AF142D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF955E63-3767-4F34-84BA-54C8411B8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>Data</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Cambio struttura file ink dopo cancellazione anime, animelle, e passaggio da spettri a persone (quindi anche randomizzate). Cambiata anche gestione storia persone (più semplificata).</t>
+  </si>
+  <si>
+    <t>Settaggio Unity a seguito modifiche + introduzione nuovo luogo (Greenhouse Middle Path)</t>
+  </si>
+  <si>
+    <t>Creazione scenari per BusStop, Garden, e settaggio Greenhouse Middle Path</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -387,6 +393,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -395,8 +404,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,17 +696,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -732,7 +744,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -752,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -773,7 +785,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -787,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -804,7 +816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -822,12 +834,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -838,7 +850,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -852,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -869,7 +881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -883,7 +895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -897,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -914,12 +926,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -933,7 +945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -950,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -964,7 +976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -981,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1009,32 +1021,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>0.125</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1253,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1336,27 +1348,27 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1366,25 +1378,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="6">
@@ -1394,11 +1406,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="6">
@@ -1406,101 +1418,126 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.96180555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="6">
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="6">
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.15972222222222221</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="17"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF955E63-3767-4F34-84BA-54C8411B8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE5B6C-FA9D-4396-81BC-1731847C5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>Data</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>Creazione scenari per BusStop, Garden, e settaggio Greenhouse Middle Path</t>
+  </si>
+  <si>
+    <t>Creato nuovo asset serra</t>
+  </si>
+  <si>
+    <t>Sistemato giardino</t>
+  </si>
+  <si>
+    <t>Sistemata serra con piante crescenti etc</t>
+  </si>
+  <si>
+    <t>Sistemati collegamenti vari</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -395,6 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,11 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,13 +1043,13 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="16">
         <v>0.125</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1042,9 +1057,9 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1348,7 +1363,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1383,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1418,7 +1433,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.96180555555555558</v>
+        <v>1.1805555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,34 +1533,78 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45675</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="17"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D14:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE5B6C-FA9D-4396-81BC-1731847C5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7AA9C-7107-4598-BF23-40DF653D9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Data</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Sistemati collegamenti vari</t>
+  </si>
+  <si>
+    <t>Con Mattia settato cambio struttura albero</t>
+  </si>
+  <si>
+    <t>Piccoli interventi</t>
+  </si>
+  <si>
+    <t>Cambio struttura albero</t>
   </si>
 </sst>
 </file>
@@ -711,17 +720,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -741,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -759,7 +768,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -779,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -800,7 +809,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -814,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -831,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -849,12 +858,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -865,7 +874,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -879,7 +888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -896,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -910,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -924,7 +933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -941,12 +950,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -960,7 +969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -977,7 +986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1070,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1277,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1363,20 +1372,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1433,10 +1442,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.1805555555555556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2847222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1558,44 +1567,80 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>45676</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7AA9C-7107-4598-BF23-40DF653D9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E261E0-EEAB-4DA2-9629-63BA4116722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>Data</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Cambio struttura albero</t>
+  </si>
+  <si>
+    <t>INK</t>
+  </si>
+  <si>
+    <t>Nuova struttura funghi</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1448,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.2847222222222223</v>
+        <v>1.3472222222222223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1619,6 +1625,17 @@
       </c>
       <c r="D20" s="6">
         <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E261E0-EEAB-4DA2-9629-63BA4116722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55FD7C-9250-4189-A305-158B0C69A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>Data</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Nuova struttura funghi</t>
+  </si>
+  <si>
+    <t>Bestemmie sui funghi</t>
   </si>
 </sst>
 </file>
@@ -726,17 +729,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -756,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -774,7 +777,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -794,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -815,7 +818,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -829,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -846,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -864,12 +867,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -880,7 +883,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -894,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -911,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -925,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -939,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -956,12 +959,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -975,7 +978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -992,7 +995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1286,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1378,20 +1381,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1448,10 +1451,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.3472222222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.5347222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1573,25 +1576,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1638,26 +1641,36 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45677</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.1875</v>
+      </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55FD7C-9250-4189-A305-158B0C69A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A508B30-3C49-4D2B-B527-5CB17E63CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>Data</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Bestemmie sui funghi</t>
+  </si>
+  <si>
+    <t>Narrative Design</t>
+  </si>
+  <si>
+    <t>Nomi luoghi, funzione fungo/albero, ruolo voce narrante, ruolo mentore</t>
   </si>
 </sst>
 </file>
@@ -729,17 +735,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -777,7 +783,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -797,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -818,7 +824,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -832,7 +838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -849,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -867,12 +873,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -883,7 +889,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -897,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -914,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -928,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -942,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -959,12 +965,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -978,7 +984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1085,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1292,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1381,20 +1387,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1451,10 +1457,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.5347222222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6180555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1576,25 +1582,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1656,21 +1662,35 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>45678</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A508B30-3C49-4D2B-B527-5CB17E63CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2461AC45-47F0-4766-9446-B45762E0E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Data</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Nomi luoghi, funzione fungo/albero, ruolo voce narrante, ruolo mentore</t>
+  </si>
+  <si>
+    <t>Traduzione in inglese elementi</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1460,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.6180555555555556</v>
+        <v>1.6909722222222223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1679,6 +1682,17 @@
       </c>
       <c r="D24" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6">
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2461AC45-47F0-4766-9446-B45762E0E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD387E-6042-452E-BB8A-627B32450A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>Data</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>Traduzione in inglese elementi</t>
+  </si>
+  <si>
+    <t>Risolto drama funghi, ora va tutto come deve &lt;3</t>
+  </si>
+  <si>
+    <t>Risolto bug mancata crescita coltivabili</t>
+  </si>
+  <si>
+    <t>Settati elementi prototipi crescita coltivabili</t>
   </si>
 </sst>
 </file>
@@ -738,17 +747,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -786,7 +795,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -806,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -827,7 +836,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -841,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -858,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -876,12 +885,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -892,7 +901,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -906,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -923,7 +932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -937,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -951,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -968,12 +977,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -987,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1097,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1304,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1389,21 +1398,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1460,10 +1469,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.6909722222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.8159722222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1585,25 +1594,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1665,12 +1674,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1695,16 +1704,49 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD387E-6042-452E-BB8A-627B32450A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31FA4F-BD6B-464D-875B-3D4DDC950D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.8159722222222221</v>
+        <v>2.7951388888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31FA4F-BD6B-464D-875B-3D4DDC950D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A304-9975-4BF3-A24B-24975C83A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Data</t>
   </si>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.7951388888888888</v>
+        <v>1.9201388888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,11 +1734,19 @@
         <v>94</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A304-9975-4BF3-A24B-24975C83A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002E296-78A8-4422-B8AD-974DA67C39CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>Data</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Settati elementi prototipi crescita coltivabili</t>
+  </si>
+  <si>
+    <t>Pulizia codice e risoluzione di un bug</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9201388888888888</v>
+        <v>1.9618055555555556</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1752,18 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="A30" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002E296-78A8-4422-B8AD-974DA67C39CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B0733-5660-495F-9EA2-FB8BCC0D5568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>Data</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Pulizia codice e risoluzione di un bug</t>
+  </si>
+  <si>
+    <t>Programmazione tempi etc fino a milestone 2 inclusa</t>
   </si>
 </sst>
 </file>
@@ -750,17 +753,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -798,7 +801,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -818,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -839,7 +842,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -853,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -870,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -888,12 +891,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -904,7 +907,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -918,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -935,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -949,7 +952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -963,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -980,12 +983,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1310,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1401,21 +1404,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1472,10 +1475,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9618055555555556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.9930555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1597,25 +1600,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1677,12 +1680,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1765,10 +1768,21 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B0733-5660-495F-9EA2-FB8BCC0D5568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27855244-97D6-4F44-B376-CA4370BBB229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>Data</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>Programmazione tempi etc fino a milestone 2 inclusa</t>
+  </si>
+  <si>
+    <t>Nuovi asset vecchi funghi</t>
+  </si>
+  <si>
+    <t>Aggiornati descrittori per funghi e accessi aree</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1481,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9930555555555556</v>
+        <v>2.0763888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1782,7 +1788,29 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27855244-97D6-4F44-B376-CA4370BBB229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D885EEEE-FF5A-49C2-9683-BA8C142E34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>Data</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Aggiornati descrittori per funghi e accessi aree</t>
+  </si>
+  <si>
+    <t>Create nuove voci per i test per i coltivabili</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1414,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.0763888888888888</v>
+        <v>2.1284722222222223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1808,6 +1811,17 @@
       </c>
       <c r="D33" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D885EEEE-FF5A-49C2-9683-BA8C142E34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7B1AF-9EAA-473E-8145-D4191753B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -762,17 +762,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -810,7 +810,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -851,7 +851,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -900,12 +900,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -916,7 +916,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -992,12 +992,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1414,20 +1414,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1484,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.1284722222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.1701388888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1609,25 +1609,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1799,10 +1799,10 @@
         <v>97</v>
       </c>
       <c r="D32" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7B1AF-9EAA-473E-8145-D4191753B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634ADD83-7F27-43A3-B4F7-C00F8FE75A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3870" windowWidth="21900" windowHeight="16665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>Data</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Create nuove voci per i test per i coltivabili</t>
+  </si>
+  <si>
+    <t>Pensieri prima storia</t>
+  </si>
+  <si>
+    <t>Risoluzione bug vari</t>
   </si>
 </sst>
 </file>
@@ -762,17 +768,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -810,7 +816,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -830,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -851,7 +857,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -865,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -882,7 +888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -900,12 +906,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -916,7 +922,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -930,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -947,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -961,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -975,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -992,12 +998,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1325,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1414,20 +1420,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1490,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.1701388888888888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.2326388888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1609,25 +1615,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1689,12 +1695,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1830,32 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>45686</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634ADD83-7F27-43A3-B4F7-C00F8FE75A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92292DE-26A0-4681-95F3-5ED99ED7C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>Data</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Risoluzione bug vari</t>
+  </si>
+  <si>
+    <t>Idee prima personaggia</t>
+  </si>
+  <si>
+    <t>Settaggio menu iniziale nuovo</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.2326388888888888</v>
+        <v>2.3784722222222219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1855,7 +1861,41 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92292DE-26A0-4681-95F3-5ED99ED7C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CEF33B-C71C-42A1-AFD3-8696C6483C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>Data</t>
   </si>
@@ -774,17 +774,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -822,7 +822,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -863,7 +863,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -894,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -912,12 +912,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -928,7 +928,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -942,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -959,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -973,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -987,7 +987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1004,12 +1004,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1423,23 +1423,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1496,10 +1496,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.3784722222222219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.4826388888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1621,25 +1621,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1872,10 +1872,10 @@
         <v>102</v>
       </c>
       <c r="D37" s="6">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1897,6 +1897,17 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CEF33B-C71C-42A1-AFD3-8696C6483C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E47367-9E43-443A-B109-27244A52BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>Data</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Settaggio menu iniziale nuovo</t>
+  </si>
+  <si>
+    <t>Struttura nuova storia pg lato codice</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.4826388888888888</v>
+        <v>2.5763888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,6 +1910,20 @@
       </c>
       <c r="D40" s="6">
         <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="6">
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E47367-9E43-443A-B109-27244A52BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20B826-94B9-4ED0-92B0-4A765C5FDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
   <si>
     <t>Data</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Struttura nuova storia pg lato codice</t>
+  </si>
+  <si>
+    <t>Risoluzione problemi salvataggio</t>
+  </si>
+  <si>
+    <t>Disabilitati tasti in conversazione</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.5763888888888888</v>
+        <v>2.7013888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,6 +1930,31 @@
       </c>
       <c r="D41" s="6">
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45690</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20B826-94B9-4ED0-92B0-4A765C5FDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920856E3-0777-40B0-BACB-D8D25D32C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
   <si>
     <t>Data</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Disabilitati tasti in conversazione</t>
+  </si>
+  <si>
+    <t>Creazione storylets personaggia uno</t>
+  </si>
+  <si>
+    <t>Personaggia uno</t>
   </si>
 </sst>
 </file>
@@ -783,17 +789,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -813,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -831,7 +837,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -851,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -872,7 +878,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -886,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -903,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -921,12 +927,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -937,7 +943,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -951,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -968,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -982,7 +988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1013,12 +1019,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1346,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1432,23 +1438,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1505,10 +1511,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.7013888888888888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.8263888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1630,25 +1636,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1710,12 +1716,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -1954,6 +1960,31 @@
         <v>106</v>
       </c>
       <c r="D43" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45691</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920856E3-0777-40B0-BACB-D8D25D32C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0115B-0554-4C11-883E-A5CEF15D2B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t>Data</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>Personaggia uno</t>
+  </si>
+  <si>
+    <t>Preparazione file per mentore e personaggia uno</t>
+  </si>
+  <si>
+    <t>Scrittura personaggia uno</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1517,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.8263888888888888</v>
+        <v>2.9618055555555554</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,6 +1992,31 @@
       </c>
       <c r="D45" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45692</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="6">
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0115B-0554-4C11-883E-A5CEF15D2B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBB0AC-1FA6-4C8E-B4AB-846186623E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
     <t>Data</t>
   </si>
@@ -795,17 +795,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -898,7 +898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -933,12 +933,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -949,7 +949,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -963,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -994,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1025,12 +1025,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1444,23 +1444,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1517,10 +1517,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.9618055555555554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.0868055555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1642,25 +1642,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1722,12 +1722,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2017,6 +2017,20 @@
       </c>
       <c r="D47" s="6">
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45694</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBB0AC-1FA6-4C8E-B4AB-846186623E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C2F73-6FB7-497D-B51F-8BF8630C1075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
   <si>
     <t>Data</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Scrittura personaggia uno</t>
+  </si>
+  <si>
+    <t>fine personaggia uno</t>
+  </si>
+  <si>
+    <t>mentore</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" activeCellId="8" sqref="D49 D48 D47 D46 D45 D44 D41 D37 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1523,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.0868055555555554</v>
+        <v>3.2638888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,6 +2037,31 @@
       </c>
       <c r="D48" s="6">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45695</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="6">
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C2F73-6FB7-497D-B51F-8BF8630C1075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A574F29-939A-479E-AE76-7C0B3143A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>Data</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>mentore</t>
+  </si>
+  <si>
+    <t>testing e sistemazione</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" activeCellId="8" sqref="D49 D48 D47 D46 D45 D44 D41 D37 D35"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.2638888888888888</v>
+        <v>3.2951388888888888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,6 +2065,17 @@
       </c>
       <c r="D50" s="6">
         <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A574F29-939A-479E-AE76-7C0B3143A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A80CF-864B-4DD0-A558-E2259C476DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
   <si>
     <t>Data</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>testing e sistemazione</t>
+  </si>
+  <si>
+    <t>Testing con Gabri e ragionamenti</t>
+  </si>
+  <si>
+    <t>Correzione codice</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.2951388888888888</v>
+        <v>3.5034722222222223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,6 +2082,42 @@
       </c>
       <c r="D51" s="6">
         <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45696</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A80CF-864B-4DD0-A558-E2259C476DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B682F-BE2B-4E55-9576-59D7B2BDD5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
-    <sheet name="Prot. 2.0" sheetId="2" r:id="rId2"/>
+    <sheet name="Prot. 1,5" sheetId="2" r:id="rId2"/>
+    <sheet name="Prot. 2.0" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1,5'!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
   <si>
     <t>Data</t>
   </si>
@@ -389,6 +391,15 @@
   </si>
   <si>
     <t>Correzione codice</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Narrative design</t>
+  </si>
+  <si>
+    <t>Riflessioni e preparazione per prototipo 2.0</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1543,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.5034722222222223</v>
+        <v>3.5868055555555558</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,6 +2129,20 @@
       </c>
       <c r="D54" s="6">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45697</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2131,4 +2156,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45699</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <f>SUM(D:D)</f>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B682F-BE2B-4E55-9576-59D7B2BDD5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D16D6-3BC4-446A-BF46-683610199993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
   <si>
     <t>Data</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Riflessioni e preparazione per prototipo 2.0</t>
+  </si>
+  <si>
+    <t>Ink: typo prototipo 1.5</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2166,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,6 +2211,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2227,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D16D6-3BC4-446A-BF46-683610199993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422F71A-2E50-40E7-8239-426220EEDE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
-    <sheet name="Prot. 1,5" sheetId="2" r:id="rId2"/>
+    <sheet name="Prot. 1.5" sheetId="2" r:id="rId2"/>
     <sheet name="Prot. 2.0" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1,5'!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1.5'!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>Data</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Cambio struttura albero</t>
   </si>
   <si>
-    <t>INK</t>
-  </si>
-  <si>
     <t>Nuova struttura funghi</t>
   </si>
   <si>
@@ -403,6 +400,12 @@
   </si>
   <si>
     <t>Ink: typo prototipo 1.5</t>
+  </si>
+  <si>
+    <t>Aggiunta di nuove frasine per i luoghi</t>
+  </si>
+  <si>
+    <t>Organizzati spostamenti personaggi e aperture luoghi</t>
   </si>
 </sst>
 </file>
@@ -824,17 +827,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -872,7 +875,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -892,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -913,7 +916,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -927,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -944,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -962,12 +965,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -978,7 +981,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -992,7 +995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1054,12 +1057,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1475,21 +1478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A423B-A5AD-4F1F-91FE-5D6529D1FD85}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1671,25 +1674,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1725,18 +1728,18 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="D21" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1744,88 +1747,88 @@
         <v>10</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="16">
         <v>0.1875</v>
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
       <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1833,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1847,46 +1850,46 @@
         <v>22</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="6">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="6">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1894,24 +1897,24 @@
         <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1919,61 +1922,61 @@
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="6">
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="6">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="6">
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -1981,24 +1984,24 @@
         <v>10</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2006,49 +2009,49 @@
         <v>11</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="6">
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2056,13 +2059,13 @@
         <v>11</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="6">
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2070,35 +2073,35 @@
         <v>11</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="6">
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="6">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="6">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2106,13 +2109,13 @@
         <v>62</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2123,18 +2126,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="6">
         <v>8.3333333333333329E-2</v>
@@ -2166,20 +2169,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2196,26 +2199,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D2" s="6">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6">
         <v>2.0833333333333332E-2</v>
@@ -2224,44 +2227,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.17708333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D17" s="18"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422F71A-2E50-40E7-8239-426220EEDE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD21FF1-4FA2-4313-B272-D998FB202722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
   <si>
     <t>Data</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Organizzati spostamenti personaggi e aperture luoghi</t>
+  </si>
+  <si>
+    <t>Studio struttura biblioteca</t>
+  </si>
+  <si>
+    <t>Creazione loop di gioco principale su Miro</t>
   </si>
 </sst>
 </file>
@@ -827,17 +833,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -875,7 +881,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -895,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -916,7 +922,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -930,7 +936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -947,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -965,12 +971,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -981,7 +987,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1057,12 +1063,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1183,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1390,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1482,17 +1488,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1674,25 +1680,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1754,12 +1760,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1951,7 +1957,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2169,20 +2175,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2239,10 +2245,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.17708333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.26041666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2253,38 +2259,63 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45700</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D17" s="18"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD21FF1-4FA2-4313-B272-D998FB202722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C472461-14CE-45F9-BECD-139B02B3B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
   <si>
     <t>Data</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Creazione loop di gioco principale su Miro</t>
+  </si>
+  <si>
+    <t>Riordino Miro</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2178,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2248,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.26041666666666663</v>
+        <v>0.28124999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,6 +2285,17 @@
       </c>
       <c r="D7" s="6">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C472461-14CE-45F9-BECD-139B02B3B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3B24E-B2A1-4E9C-8159-16B58AF69D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
   <si>
     <t>Data</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Riordino Miro</t>
+  </si>
+  <si>
+    <t>Miro: sistemazione scenari</t>
+  </si>
+  <si>
+    <t>Miro: sistemazione personagge</t>
   </si>
 </sst>
 </file>
@@ -836,17 +842,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -884,7 +890,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -904,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -925,7 +931,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -939,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -956,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -974,12 +980,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -990,7 +996,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1066,12 +1072,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1192,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1399,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1491,17 +1497,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1683,25 +1689,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1763,12 +1769,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2178,20 +2184,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2248,10 +2254,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.28124999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2298,38 +2304,63 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>45701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D17" s="18"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3B24E-B2A1-4E9C-8159-16B58AF69D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E5828-44FE-470B-86C5-F0233B0BB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
   <si>
     <t>Data</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Miro: sistemazione personagge</t>
+  </si>
+  <si>
+    <t>Ink: preparazione a prototipo</t>
+  </si>
+  <si>
+    <t>Sistemata montagna e bacheca</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -556,6 +562,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2184,7 +2191,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,7 +2261,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.39583333333333331</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,17 +2336,50 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="18"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="18"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="18"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="17"/>
@@ -2365,8 +2405,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="4">
-    <mergeCell ref="D14:D17"/>
+  <mergeCells count="3">
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E5828-44FE-470B-86C5-F0233B0BB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D6D39A-867D-4ACC-8017-B8D8C715651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1.5'!$A$1:$E$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="131">
   <si>
     <t>Data</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Sistemata montagna e bacheca</t>
+  </si>
+  <si>
+    <t>Creazione asset biblioteca e relativi interagibili</t>
+  </si>
+  <si>
+    <t>Aggancio e settaggio interagibili nuove e aperture aree</t>
+  </si>
+  <si>
+    <t>Studio personaggio 2</t>
   </si>
 </sst>
 </file>
@@ -526,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -562,7 +571,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -849,17 +857,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -879,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -897,7 +905,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -917,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -938,7 +946,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -952,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -969,7 +977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -987,12 +995,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1079,12 +1087,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1207,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1414,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1504,17 +1512,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1646,7 +1654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1696,25 +1704,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1776,12 +1784,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1825,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1897,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1981,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1992,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +2081,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2188,23 +2196,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2235,7 +2243,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2261,10 +2269,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2275,7 +2283,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +2294,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2369,46 +2377,70 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="19"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="11"/>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D6D39A-867D-4ACC-8017-B8D8C715651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FB2926-1601-4DA2-8DA6-9D9380B1B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
   <si>
     <t>Data</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Studio personaggio 2</t>
+  </si>
+  <si>
+    <t>Pulizia e riordino codice, settaggio per personagg3 2 e 3</t>
   </si>
 </sst>
 </file>
@@ -857,17 +860,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -887,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -925,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -946,7 +949,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -960,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -977,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -995,12 +998,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1087,12 +1090,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1210,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1512,17 +1515,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1704,25 +1707,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1784,12 +1787,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2199,20 +2202,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2269,10 +2272,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2413,26 +2416,51 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>45703</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FB2926-1601-4DA2-8DA6-9D9380B1B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3DE19-E1AA-4EC8-B624-FD62B927DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="134">
   <si>
     <t>Data</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>Pulizia e riordino codice, settaggio per personagg3 2 e 3</t>
+  </si>
+  <si>
+    <t>Settaggio game design e logica biblioteca</t>
+  </si>
+  <si>
+    <t>Creazione codice per la gestione della biblioteca</t>
   </si>
 </sst>
 </file>
@@ -860,17 +866,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -908,7 +914,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -928,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -949,7 +955,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -963,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -980,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -998,12 +1004,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1090,12 +1096,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1423,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1515,17 +1521,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1707,25 +1713,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1787,12 +1793,12 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +1990,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2202,20 +2208,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2272,10 +2278,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.88541666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2441,32 +2447,56 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="3">
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="2">
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
   </mergeCells>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3DE19-E1AA-4EC8-B624-FD62B927DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFAB01-08E0-41E5-BDF1-F99EF101E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1.5'!$A$1:$E$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="135">
   <si>
     <t>Data</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Creazione codice per la gestione della biblioteca</t>
+  </si>
+  <si>
+    <t>Riflessioni su altri coltivabili</t>
   </si>
 </sst>
 </file>
@@ -2205,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2281,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.88541666666666663</v>
+        <v>0.92708333333333326</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,41 +2452,52 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45705</v>
+        <v>45704</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
@@ -2491,14 +2505,17 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="11"/>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFAB01-08E0-41E5-BDF1-F99EF101E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3867EED-A05B-4C8A-B9E4-5647BF8726E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="137">
   <si>
     <t>Data</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Riflessioni su altri coltivabili</t>
+  </si>
+  <si>
+    <t>Rielaborazione mentore</t>
+  </si>
+  <si>
+    <t>Nuova voce mentore</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2217,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2287,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.92708333333333326</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,6 +2492,31 @@
         <v>133</v>
       </c>
       <c r="D21" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45707</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="6">
         <v>6.25E-2</v>
       </c>
     </row>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3867EED-A05B-4C8A-B9E4-5647BF8726E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397880C-D33E-4956-AD2D-2A96FB75ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
   <si>
     <t>Data</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Nuova voce mentore</t>
+  </si>
+  <si>
+    <t>Settaggio mentore come quinta personaggia (ink etc)</t>
+  </si>
+  <si>
+    <t>In particolare creato nodo diverso per ink tra supporto e conoscenza</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -588,6 +594,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2217,7 +2226,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2296,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.03125</v>
+        <v>1.1145833333333333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,18 +2526,27 @@
         <v>136</v>
       </c>
       <c r="D23" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="19">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
@@ -2544,10 +2562,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="2">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397880C-D33E-4956-AD2D-2A96FB75ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623298EE-1FA5-4785-9564-D458D2454ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
   <si>
     <t>Data</t>
   </si>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t>In particolare creato nodo diverso per ink tra supporto e conoscenza</t>
+  </si>
+  <si>
+    <t>Testi mindfullnes</t>
+  </si>
+  <si>
+    <t>Settaggio codice mindfullnes</t>
+  </si>
+  <si>
+    <t>Testi mentore (prima, seconda e terza storia) + extra</t>
+  </si>
+  <si>
+    <t>Testi fungo</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -583,6 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,8 +610,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,17 +899,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -914,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -932,7 +947,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -952,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -973,7 +988,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1022,12 +1037,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1114,12 +1129,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1209,32 +1224,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>0.125</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1301,7 +1316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1456,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1492,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1539,17 +1554,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +1609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1624,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1631,7 +1646,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1681,7 +1696,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1720,36 +1735,36 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1763,7 +1778,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1796,27 +1811,27 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>0.1875</v>
       </c>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1867,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1885,7 +1900,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1899,7 +1914,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1950,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1961,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +1986,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2023,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2033,7 +2048,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2162,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2173,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2172,7 +2187,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2225,21 +2240,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2296,10 +2311,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.1145833333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2673611111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2335,7 +2350,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2346,7 +2361,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2360,7 +2375,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2429,7 +2444,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2519,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2529,35 +2544,78 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <v>6.25E-2</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="19"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45708</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2.4305555555555556E-2</v>
+      </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623298EE-1FA5-4785-9564-D458D2454ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C594FB4-E5A0-429F-9A84-B7628259AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t>Data</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>Testi fungo</t>
+  </si>
+  <si>
+    <t>Aggiustamento testi fungo e mentore</t>
+  </si>
+  <si>
+    <t>Riordino obiettivi</t>
   </si>
 </sst>
 </file>
@@ -598,6 +604,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,9 +618,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,17 +905,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -929,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -947,7 +953,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -967,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -988,7 +994,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1037,12 +1043,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1129,12 +1135,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1224,32 +1230,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="18">
         <v>0.125</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1554,17 +1560,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1735,36 +1741,36 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1811,27 +1817,27 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="18">
         <v>0.1875</v>
       </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2029,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2241,20 +2247,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2311,10 +2317,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.2673611111111109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.3194444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2544,8 +2550,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2558,7 +2564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2573,7 +2579,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2606,16 +2612,41 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45710</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C594FB4-E5A0-429F-9A84-B7628259AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850863B-3093-444B-A686-D40174C2B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Data</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Riordino obiettivi</t>
+  </si>
+  <si>
+    <t>Nuovo asset mentore</t>
   </si>
 </sst>
 </file>
@@ -905,17 +908,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,7 +938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -953,7 +956,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -973,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -994,7 +997,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1043,12 +1046,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1135,12 +1138,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1465,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1560,17 +1563,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1752,25 +1755,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1832,12 +1835,12 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2032,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2246,21 +2249,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2317,10 +2320,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.3194444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3819444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2579,7 +2582,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2637,16 +2640,27 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>45711</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850863B-3093-444B-A686-D40174C2B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDD029-060C-410D-AF84-316E4FFB46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>Data</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Nuovo asset mentore</t>
+  </si>
+  <si>
+    <t>Contenuti e struttura personaggia due</t>
   </si>
 </sst>
 </file>
@@ -2249,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2320,7 +2323,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.3819444444444444</v>
+        <v>1.4861111111111112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2655,7 +2658,18 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="14"/>
+      <c r="A32" s="4">
+        <v>45715</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDD029-060C-410D-AF84-316E4FFB46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63E188-3A38-4270-801B-070FDD107752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -911,17 +911,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -979,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1141,12 +1141,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1566,17 +1566,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1758,25 +1758,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1838,12 +1838,12 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2253,20 +2253,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2323,10 +2323,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.4861111111111112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.5277777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2668,13 +2668,13 @@
         <v>146</v>
       </c>
       <c r="D32" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63E188-3A38-4270-801B-070FDD107752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA968A-C87E-4F62-9769-39844160B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
   <si>
     <t>Data</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Contenuti e struttura personaggia due</t>
+  </si>
+  <si>
+    <t>Sistemazione asset bus stop, foresta e middlepath</t>
   </si>
 </sst>
 </file>
@@ -911,17 +914,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -959,7 +962,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -979,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1049,12 +1052,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1141,12 +1144,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1471,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1566,17 +1569,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1758,25 +1761,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1838,12 +1841,12 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2253,20 +2256,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2323,10 +2326,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.5277777777777777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6527777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2585,7 +2588,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2671,10 +2674,21 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>45716</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA968A-C87E-4F62-9769-39844160B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977442F-CEAD-495E-85BF-91C4518F1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t>Data</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Sistemazione asset bus stop, foresta e middlepath</t>
+  </si>
+  <si>
+    <t>Contenuti generali seconda personaggia</t>
   </si>
 </sst>
 </file>
@@ -914,17 +917,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -944,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -962,7 +965,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -982,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1052,12 +1055,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1144,12 +1147,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1267,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1569,17 +1572,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1761,25 +1764,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1841,12 +1844,12 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2256,20 +2259,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2326,10 +2329,10 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.6527777777777777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2588,7 +2591,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2688,7 +2691,21 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45717</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977442F-CEAD-495E-85BF-91C4518F1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC68C40-A55C-40DB-8AF5-B8C39D1B0A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="153">
   <si>
     <t>Data</t>
   </si>
@@ -490,6 +490,18 @@
   </si>
   <si>
     <t>Contenuti generali seconda personaggia</t>
+  </si>
+  <si>
+    <t>Domande verdi e gialle della seconda personaggia</t>
+  </si>
+  <si>
+    <t>Poca roba</t>
+  </si>
+  <si>
+    <t>Organizzazione materiali</t>
+  </si>
+  <si>
+    <t>Secondo personaggio, asset</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2271,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2341,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.7777777777777777</v>
+        <v>1.9861111111111112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,6 +2715,56 @@
       </c>
       <c r="D34" s="6">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45721</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45722</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC68C40-A55C-40DB-8AF5-B8C39D1B0A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185DBC6-9C6E-48FA-A920-8D052121FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Secondo personaggio, asset</t>
+  </si>
+  <si>
+    <t>Primo personaggio + note nuove + colore nuovo secondo personaggio</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2274,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,7 +2344,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9861111111111112</v>
+        <v>2.0486111111111112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,6 +2768,17 @@
       </c>
       <c r="D38" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185DBC6-9C6E-48FA-A920-8D052121FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8D36A-8026-4D59-B45B-9E95BA87C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="156">
   <si>
     <t>Data</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Primo personaggio + note nuove + colore nuovo secondo personaggio</t>
+  </si>
+  <si>
+    <t>Fungo: nuova palette, nuovo tronco, rami, radici</t>
+  </si>
+  <si>
+    <t>Totale ore di tutte le milestones</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -645,6 +651,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,9 +2297,11 @@
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2318,7 +2332,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2344,10 +2358,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.0486111111111112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.2152777777777777</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2357,8 +2374,12 @@
       <c r="D5" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="22">
+        <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
+        <v>8.0173611111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2369,7 +2390,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2394,7 +2415,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2408,7 +2429,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2419,7 +2440,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2451,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2463,7 +2484,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2779,6 +2800,17 @@
       </c>
       <c r="D39" s="6">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8D36A-8026-4D59-B45B-9E95BA87C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FEF34-E6F7-4C8D-8CD1-E972C75DA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="159">
   <si>
     <t>Data</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>Totale ore di tutte le milestones</t>
+  </si>
+  <si>
+    <t>Camera: nuovi asset</t>
+  </si>
+  <si>
+    <t>Codice per rana e cambi background camera</t>
+  </si>
+  <si>
+    <t>Rana e ninfea</t>
   </si>
 </sst>
 </file>
@@ -640,6 +649,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,12 +666,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,17 +953,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -992,7 +1001,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1082,12 +1091,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1174,12 +1183,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1269,32 +1278,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="20">
         <v>0.125</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1510,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1599,17 +1608,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1780,36 +1789,36 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="22">
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1856,27 +1865,27 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="20">
         <v>0.1875</v>
       </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +1943,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1959,7 +1968,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2045,7 +2054,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2077,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2132,7 +2141,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2283,25 +2292,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2358,13 +2367,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.2152777777777777</v>
-      </c>
-      <c r="I4" s="21" t="s">
+        <v>2.3402777777777777</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2374,12 +2383,12 @@
       <c r="D5" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.0173611111111107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.2673611111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2548,7 +2557,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2627,7 +2636,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2674,7 +2683,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2755,7 +2764,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2769,7 +2778,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2813,8 +2822,42 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>45723</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FEF34-E6F7-4C8D-8CD1-E972C75DA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43891A-72C2-4D8D-AB88-12EAE73E61A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="160">
   <si>
     <t>Data</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Rana e ninfea</t>
+  </si>
+  <si>
+    <t>Middleground ridefiizione</t>
   </si>
 </sst>
 </file>
@@ -953,17 +956,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -983,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1001,7 +1004,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1091,12 +1094,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1183,12 +1186,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1306,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1608,17 +1611,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1800,25 +1803,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1880,12 +1883,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +2080,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2292,25 +2295,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2367,13 +2370,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.3402777777777777</v>
+        <v>2.4548611111111112</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2385,10 +2388,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.2673611111111107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8.4965277777777786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2636,7 +2639,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2857,6 +2860,20 @@
       </c>
       <c r="D43" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.11458333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43891A-72C2-4D8D-AB88-12EAE73E61A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98F614-8E4C-4359-8B96-1883E8664B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="161">
   <si>
     <t>Data</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Middleground ridefiizione</t>
+  </si>
+  <si>
+    <t>Playtest e risoluzioni</t>
   </si>
 </sst>
 </file>
@@ -2295,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2373,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.4548611111111112</v>
+        <v>2.5173611111111112</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.4965277777777786</v>
+        <v>8.6215277777777786</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,6 +2877,17 @@
       </c>
       <c r="D44" s="6">
         <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98F614-8E4C-4359-8B96-1883E8664B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA5787-BD7B-44CA-A592-C39B504E02F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,10 +522,10 @@
     <t>Rana e ninfea</t>
   </si>
   <si>
-    <t>Middleground ridefiizione</t>
-  </si>
-  <si>
     <t>Playtest e risoluzioni</t>
+  </si>
+  <si>
+    <t>Middleground ridefinizione</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.5173611111111112</v>
+        <v>2.5381944444444446</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.6215277777777786</v>
+        <v>8.6631944444444446</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" s="6">
         <v>0.11458333333333333</v>
@@ -2884,10 +2884,10 @@
         <v>22</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="6">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA5787-BD7B-44CA-A592-C39B504E02F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746EFEF7-346F-41FA-8CB6-75660B2E9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="165">
   <si>
     <t>Data</t>
   </si>
@@ -526,6 +526,18 @@
   </si>
   <si>
     <t>Middleground ridefinizione</t>
+  </si>
+  <si>
+    <t>Risoluzione con Mattia di una serie di problemi vari</t>
+  </si>
+  <si>
+    <t>Testing e risoluzione piccoli problemi</t>
+  </si>
+  <si>
+    <t>Gestione e impostazione scena d'avvio gioco</t>
+  </si>
+  <si>
+    <t>Risoluzione problema slot bianchi di testo, settaggio scena avvio, settaggio opzione reset gioco, overlay tasti, risoluzione problema biblioteca</t>
   </si>
 </sst>
 </file>
@@ -959,17 +971,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1007,7 +1019,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1097,12 +1109,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1189,12 +1201,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1321,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1490,7 +1502,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1528,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1614,17 +1626,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1806,25 +1818,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1886,12 +1898,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1939,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +1961,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2010,7 +2022,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2095,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2195,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2298,25 +2310,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2347,7 +2359,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2373,13 +2385,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.5381944444444446</v>
+        <v>2.6631944444444451</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2391,10 +2403,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.6631944444444446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9131944444444464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2466,7 +2478,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2642,7 +2654,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2843,7 +2855,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -2888,6 +2900,45 @@
       </c>
       <c r="D45" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45725</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746EFEF7-346F-41FA-8CB6-75660B2E9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA34A4-06C6-48E0-8756-D0E5E8DECB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="166">
   <si>
     <t>Data</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>Risoluzione problema slot bianchi di testo, settaggio scena avvio, settaggio opzione reset gioco, overlay tasti, risoluzione problema biblioteca</t>
+  </si>
+  <si>
+    <t>Creato video di avvio e piccole cosette varie</t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.6631944444444451</v>
+        <v>2.7604166666666674</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>8.9131944444444464</v>
+        <v>9.1076388888888911</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2939,6 +2942,17 @@
       </c>
       <c r="D48" s="6">
         <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA34A4-06C6-48E0-8756-D0E5E8DECB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC82026-17C1-44C7-ACF9-AD027CB1E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
   <si>
     <t>Data</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Creato video di avvio e piccole cosette varie</t>
+  </si>
+  <si>
+    <t>Aggiornamento di alcuni degli assets dei coltivabili</t>
+  </si>
+  <si>
+    <t>Giallo e viola per seconda personaggia + piccole cose</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.7604166666666674</v>
+        <v>2.9583333333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2406,7 +2412,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>9.1076388888888911</v>
+        <v>9.5034722222222232</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2944,7 +2950,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -2953,6 +2959,34 @@
       </c>
       <c r="D49" s="6">
         <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>45726</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>45727</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.13541666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC82026-17C1-44C7-ACF9-AD027CB1E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF7751-0F11-4E6E-B389-CD511CB147DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
   <si>
     <t>Data</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Giallo e viola per seconda personaggia + piccole cose</t>
+  </si>
+  <si>
+    <t>Controllo e commento racconti ame</t>
+  </si>
+  <si>
+    <t>Risistemazione biblioteca</t>
+  </si>
+  <si>
+    <t>Racconto mio per la biblioteca</t>
   </si>
 </sst>
 </file>
@@ -2319,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.9583333333333339</v>
+        <v>3.0208333333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2412,7 +2421,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>9.5034722222222232</v>
+        <v>9.6284722222222232</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2987,6 +2996,39 @@
       </c>
       <c r="D51" s="6">
         <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF7751-0F11-4E6E-B389-CD511CB147DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017FFF3-F079-444B-94E1-1CE3B4675148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>Racconto mio per la biblioteca</t>
+  </si>
+  <si>
+    <t>Assets mancanti serra</t>
+  </si>
+  <si>
+    <t>Aggiornamento asset foresta biblioteca</t>
   </si>
 </sst>
 </file>
@@ -989,17 +995,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1037,7 +1043,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1127,12 +1133,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1219,12 +1225,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1552,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1644,17 +1650,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1836,25 +1842,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1916,12 +1922,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2119,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2328,25 +2334,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2403,13 +2409,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.0208333333333339</v>
+        <v>3.1145833333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2421,10 +2427,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>9.6284722222222232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9.8159722222222232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2529,7 +2535,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2672,7 +2678,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2873,7 +2879,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3028,6 +3034,28 @@
         <v>170</v>
       </c>
       <c r="D54" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45731</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017FFF3-F079-444B-94E1-1CE3B4675148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409760CF-27E3-41FA-BB92-209045398163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="175">
   <si>
     <t>Data</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Aggiornamento asset foresta biblioteca</t>
+  </si>
+  <si>
+    <t>Domande finali e finali del secondo personaggio</t>
+  </si>
+  <si>
+    <t>Ultime domande e relative risposte storie secondo personaggio</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.1145833333333339</v>
+        <v>3.2395833333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2427,7 +2433,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>9.8159722222222232</v>
+        <v>10.065972222222223</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,6 +3063,34 @@
       </c>
       <c r="D56" s="6">
         <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>45733</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45734</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409760CF-27E3-41FA-BB92-209045398163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D62CF-7F41-4CAC-966D-34D6442AA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="176">
   <si>
     <t>Data</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Ultime domande e relative risposte storie secondo personaggio</t>
+  </si>
+  <si>
+    <t>Correzione ed elementi mancanti del secondo personaggio</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.2395833333333339</v>
+        <v>3.3506944444444451</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>10.065972222222223</v>
+        <v>10.288194444444446</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,6 +3094,20 @@
       </c>
       <c r="D58" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45740</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D62CF-7F41-4CAC-966D-34D6442AA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93134343-F338-46FD-A449-DA01A6C15CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
   <si>
     <t>Data</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Correzione ed elementi mancanti del secondo personaggio</t>
+  </si>
+  <si>
+    <t>Piccoli aggiustamenti fungo</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
@@ -2418,7 +2421,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.3506944444444451</v>
+        <v>3.3923611111111116</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2436,7 +2439,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>10.288194444444446</v>
+        <v>10.371527777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,6 +3111,17 @@
       </c>
       <c r="D59" s="6">
         <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93134343-F338-46FD-A449-DA01A6C15CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6F262-382B-4C21-81D5-6AF6C15E1715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
     <t>Correzione ed elementi mancanti del secondo personaggio</t>
   </si>
   <si>
-    <t>Piccoli aggiustamenti fungo</t>
+    <t>Piccoli aggiustamenti fungo + rana</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6F262-382B-4C21-81D5-6AF6C15E1715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05FFBB-A676-43DB-B444-80807D9D61B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="179">
   <si>
     <t>Data</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>Piccoli aggiustamenti fungo + rana</t>
+  </si>
+  <si>
+    <t>Mentore: elementi mancanti</t>
+  </si>
+  <si>
+    <t>Prima personaggia e secondo personaggio: interventi reciproci se in scena assieme + storylet ad hoc se sono insieme una volta.</t>
   </si>
 </sst>
 </file>
@@ -2346,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2427,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.3923611111111116</v>
+        <v>3.5173611111111116</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>10.371527777777779</v>
+        <v>10.621527777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3122,6 +3128,28 @@
       </c>
       <c r="D60" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="6">
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05FFBB-A676-43DB-B444-80807D9D61B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F787B-E30A-47CE-8E58-631761BDAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="180">
   <si>
     <t>Data</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>Prima personaggia e secondo personaggio: interventi reciproci se in scena assieme + storylet ad hoc se sono insieme una volta.</t>
+  </si>
+  <si>
+    <t>Check racconti ame etc (vado in accumulo perché non ho segnato diverse ore)</t>
   </si>
 </sst>
 </file>
@@ -2352,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.5173611111111116</v>
+        <v>3.6423611111111116</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>10.621527777777779</v>
+        <v>10.871527777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3150,6 +3153,17 @@
       </c>
       <c r="D62" s="6">
         <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F787B-E30A-47CE-8E58-631761BDAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F528845-38F5-4400-8E89-67CCB7864A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
   <si>
     <t>Data</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>Check racconti ame etc (vado in accumulo perché non ho segnato diverse ore)</t>
+  </si>
+  <si>
+    <t>Consultazione Gabri per zoomerizzazione prima personaggia</t>
+  </si>
+  <si>
+    <t>Inserimento racconti e poesie nella biblioteca (manca giusto Angel)</t>
   </si>
 </sst>
 </file>
@@ -2355,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2436,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.6423611111111116</v>
+        <v>3.7673611111111116</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>10.871527777777779</v>
+        <v>11.121527777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3164,6 +3170,31 @@
       </c>
       <c r="D63" s="6">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45742</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F528845-38F5-4400-8E89-67CCB7864A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C4A24-16EE-451B-8BB3-A069B0AFB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="184">
   <si>
     <t>Data</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>Inserimento racconti e poesie nella biblioteca (manca giusto Angel)</t>
+  </si>
+  <si>
+    <t>Creazione domande e trigger per biblioteca</t>
+  </si>
+  <si>
+    <t>Implementazione domande e trigger biblioteca + testing</t>
   </si>
 </sst>
 </file>
@@ -2361,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.7673611111111116</v>
+        <v>3.8402777777777786</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.121527777777779</v>
+        <v>11.267361111111112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3195,6 +3201,28 @@
       </c>
       <c r="D65" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C4A24-16EE-451B-8BB3-A069B0AFB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D347DB0-BBBE-4418-85A4-A90D92F9CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="186">
   <si>
     <t>Data</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>Implementazione domande e trigger biblioteca + testing</t>
+  </si>
+  <si>
+    <t>Riscrittura personaggia uno con nuova voce</t>
+  </si>
+  <si>
+    <t>Sistemazione coltivabili con nuova versione immagine etc.</t>
   </si>
 </sst>
 </file>
@@ -1028,17 +1034,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1076,7 +1082,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1166,12 +1172,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1258,12 +1264,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1384,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1591,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1683,17 +1689,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1875,25 +1881,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1955,12 +1961,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2158,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2367,25 +2373,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2442,13 +2448,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.8402777777777786</v>
+        <v>3.9965277777777786</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2460,10 +2466,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.267361111111112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11.579861111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2711,7 +2717,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2912,7 +2918,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3065,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3223,6 +3229,28 @@
       </c>
       <c r="D67" s="6">
         <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>45743</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D347DB0-BBBE-4418-85A4-A90D92F9CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD270B-91B5-46CD-BB40-541D432B1F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="189">
   <si>
     <t>Data</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>Sistemazione coltivabili con nuova versione immagine etc.</t>
+  </si>
+  <si>
+    <t>Editing</t>
+  </si>
+  <si>
+    <t>Testing su Unity</t>
+  </si>
+  <si>
+    <t>Risoluzione bug e piccoli problemi</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>3.9965277777777786</v>
+        <v>4.0902777777777786</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.579861111111112</v>
+        <v>11.767361111111112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3246,11 +3255,47 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
       <c r="C69" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D69" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD270B-91B5-46CD-BB40-541D432B1F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD9FE4-D960-4727-B389-2C852960E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="190">
   <si>
     <t>Data</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>Risoluzione bug e piccoli problemi</t>
+  </si>
+  <si>
+    <t>Comunicazioni</t>
   </si>
 </sst>
 </file>
@@ -2382,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,7 +2460,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.0902777777777786</v>
+        <v>4.1319444444444446</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.767361111111112</v>
+        <v>11.850694444444445</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3284,7 +3287,7 @@
         <v>187</v>
       </c>
       <c r="D71" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,6 +3298,17 @@
         <v>188</v>
       </c>
       <c r="D72" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD9FE4-D960-4727-B389-2C852960E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66253577-42F8-438F-A7EC-E413EFC30824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.1319444444444446</v>
+        <v>4.1736111111111116</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.850694444444445</v>
+        <v>11.934027777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
         <v>188</v>
       </c>
       <c r="D72" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66253577-42F8-438F-A7EC-E413EFC30824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC66AD3-C8E7-4E65-8F19-57C2339E28FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="192">
   <si>
     <t>Data</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>Comunicazioni</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Preparazione domande per le tester</t>
   </si>
 </sst>
 </file>
@@ -1046,17 +1052,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1094,7 +1100,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1184,12 +1190,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1276,12 +1282,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1402,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1609,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1701,17 +1707,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1893,25 +1899,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -1973,12 +1979,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2176,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2385,25 +2391,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2460,13 +2466,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.1736111111111116</v>
+        <v>4.3402777777777777</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2478,10 +2484,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>11.934027777777779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12.267361111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2930,7 +2936,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3310,6 +3316,31 @@
       </c>
       <c r="D73" s="6">
         <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="6">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC66AD3-C8E7-4E65-8F19-57C2339E28FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0A671-70A7-4D8B-9B4A-97CE193C4536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
   <si>
     <t>Data</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>Preparazione domande per le tester</t>
+  </si>
+  <si>
+    <t>Aggiornamento video iniziale</t>
   </si>
 </sst>
 </file>
@@ -2391,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.3402777777777777</v>
+        <v>4.3611111111111107</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>12.267361111111111</v>
+        <v>12.309027777777777</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,6 +3344,20 @@
       </c>
       <c r="D75" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45745</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="6">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0A671-70A7-4D8B-9B4A-97CE193C4536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B4413-0365-4624-9159-B5F38955932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="199">
   <si>
     <t>Data</t>
   </si>
@@ -622,6 +622,24 @@
   </si>
   <si>
     <t>Aggiornamento video iniziale</t>
+  </si>
+  <si>
+    <t>Testing con Mattia</t>
+  </si>
+  <si>
+    <t>Debug con Mattia</t>
+  </si>
+  <si>
+    <t>Pagina itch e build</t>
+  </si>
+  <si>
+    <t>Debug e ultime rifiniture</t>
+  </si>
+  <si>
+    <t>Nuovi testi mentore</t>
+  </si>
+  <si>
+    <t>Nuovo asset biblioteca off</t>
   </si>
 </sst>
 </file>
@@ -2394,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2487,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.3611111111111107</v>
+        <v>4.6631944444444429</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -2487,7 +2505,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>12.309027777777777</v>
+        <v>12.913194444444441</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3358,6 +3376,75 @@
       </c>
       <c r="D76" s="6">
         <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45746</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B4413-0365-4624-9159-B5F38955932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5737F73E-4B8D-44CA-9C7B-AA614578B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="200">
   <si>
     <t>Data</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Nuovo asset biblioteca off</t>
+  </si>
+  <si>
+    <t>Build windows + Build WebGL</t>
   </si>
 </sst>
 </file>
@@ -1073,17 +1076,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1121,7 +1124,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1211,12 +1214,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1303,12 +1306,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1426,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1633,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1728,17 +1731,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1920,25 +1923,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2000,12 +2003,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2200,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2412,25 +2415,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2487,13 +2490,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.6631944444444429</v>
+        <v>4.6944444444444429</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2505,10 +2508,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>12.913194444444441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12.975694444444441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2756,7 +2759,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2957,7 +2960,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3445,6 +3448,20 @@
       </c>
       <c r="D82" s="6">
         <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>45747</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="6">
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5737F73E-4B8D-44CA-9C7B-AA614578B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24FA47-1EB6-4084-BCB2-D52E6C664350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="201">
   <si>
     <t>Data</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>Build windows + Build WebGL</t>
+  </si>
+  <si>
+    <t>Testing con Gabri</t>
   </si>
 </sst>
 </file>
@@ -1076,17 +1079,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1124,7 +1127,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1214,12 +1217,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1306,12 +1309,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1636,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1731,17 +1734,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1923,25 +1926,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2003,12 +2006,12 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2203,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2415,25 +2418,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2490,13 +2493,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>4.6944444444444429</v>
+        <v>4.8090277777777759</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2508,10 +2511,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>12.975694444444441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.204861111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2759,7 +2762,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -2960,7 +2963,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3461,7 +3464,18 @@
         <v>199</v>
       </c>
       <c r="D83" s="6">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="6">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24FA47-1EB6-4084-BCB2-D52E6C664350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08664F44-4D34-40BF-BFB8-44EF9B2332F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
     <sheet name="Prot. 1.5" sheetId="2" r:id="rId2"/>
     <sheet name="Prot. 2.0" sheetId="3" r:id="rId3"/>
+    <sheet name="Prot. 3.0a" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prot. 1.0'!$A$1:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prot. 1.5'!$A$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Prot. 2.0'!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Prot. 3.0a'!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="205">
   <si>
     <t>Data</t>
   </si>
@@ -646,6 +648,18 @@
   </si>
   <si>
     <t>Testing con Gabri</t>
+  </si>
+  <si>
+    <t>Riorganizzazione materiale testing</t>
+  </si>
+  <si>
+    <t>Organizzazione priorità per Milestone 3a e 3b</t>
+  </si>
+  <si>
+    <t>Solo riorganizzato, no riflessioni complessive per ora</t>
+  </si>
+  <si>
+    <t>Pari a giorni di lavoro da 8 ore:</t>
   </si>
 </sst>
 </file>
@@ -745,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -793,6 +807,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2420,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C18C18-D42C-4E66-99E4-40C2685D96F4}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2525,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I5" s="18">
-        <f>SUM('Prot. 2.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
-        <v>13.204861111111107</v>
+        <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4)</f>
+        <v>11.364583333333332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,6 +3492,136 @@
       <c r="D84" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45787</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45792</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <f>SUM(D:D)</f>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="18">
+        <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
+        <v>11.468749999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="23">
+        <f>I5/8</f>
+        <v>1.4335937499999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08664F44-4D34-40BF-BFB8-44EF9B2332F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42BE6E-5E93-4E56-8E3A-949C59078140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="206">
   <si>
     <t>Data</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>Pari a giorni di lavoro da 8 ore:</t>
+  </si>
+  <si>
+    <t>Organizzazione attività da fare e dipendenze</t>
   </si>
 </sst>
 </file>
@@ -795,6 +798,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,7 +811,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1426,13 +1429,13 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="21">
         <v>0.125</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1440,9 +1443,9 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1937,7 +1940,7 @@
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>0.19791666666666666</v>
       </c>
     </row>
@@ -1945,19 +1948,19 @@
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2013,18 +2016,18 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="21">
         <v>0.1875</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -3505,7 +3508,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,9 +3575,21 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45794</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.10416666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3583,7 +3598,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>11.468749999999998</v>
+        <v>11.572916666666666</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,9 +3607,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.4335937499999998</v>
+        <v>1.4466145833333333</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42BE6E-5E93-4E56-8E3A-949C59078140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355F1AF-783E-4DF4-9208-9C518B7C767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="209">
   <si>
     <t>Data</t>
   </si>
@@ -663,6 +663,15 @@
   </si>
   <si>
     <t>Organizzazione attività da fare e dipendenze</t>
+  </si>
+  <si>
+    <t>Selezione con Mattia priorità codice e features</t>
+  </si>
+  <si>
+    <t>Problema serra</t>
+  </si>
+  <si>
+    <t>UI adattabile agli schermi</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3517,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,19 +3598,48 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.20833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45795</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>11.572916666666666</v>
+        <v>11.781249999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.125</v>
+      </c>
       <c r="I7" t="s">
         <v>204</v>
       </c>
@@ -3609,7 +3647,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.4466145833333333</v>
+        <v>1.4726562499999998</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355F1AF-783E-4DF4-9208-9C518B7C767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE322C-11E6-4401-AB1B-77A8157D3D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
   <si>
     <t>Data</t>
   </si>
@@ -672,6 +672,12 @@
   </si>
   <si>
     <t>UI adattabile agli schermi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemazione UI </t>
+  </si>
+  <si>
+    <t>Correzione bug coltivabili</t>
   </si>
 </sst>
 </file>
@@ -3517,7 +3523,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,7 +3604,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.41666666666666663</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3619,7 +3625,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>11.781249999999998</v>
+        <v>11.843749999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3634,6 +3640,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>208</v>
       </c>
@@ -3645,9 +3654,32 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45799</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.125E-2</v>
+      </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.4726562499999998</v>
+        <v>1.4804687499999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE322C-11E6-4401-AB1B-77A8157D3D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3CD31-C02D-47E5-BDFC-E70F5E23ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="212">
   <si>
     <t>Data</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>Correzione bug coltivabili</t>
+  </si>
+  <si>
+    <t>Check materiale accessibilità</t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3526,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3607,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.47916666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>11.843749999999998</v>
+        <v>11.927083333333332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3668,7 +3671,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.4804687499999998</v>
+        <v>1.4908854166666665</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,6 +3683,20 @@
       </c>
       <c r="D9" s="6">
         <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45800</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3CD31-C02D-47E5-BDFC-E70F5E23ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48249E36-DE57-49BB-885F-A2F8936E9E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="214">
   <si>
     <t>Data</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>Check materiale accessibilità</t>
+  </si>
+  <si>
+    <t>Check vari con Mattia</t>
+  </si>
+  <si>
+    <t>Riordino materiale Remmi</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3532,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,7 +3613,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.5625</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3628,7 +3634,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>11.927083333333332</v>
+        <v>12.093749999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,7 +3677,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.4908854166666665</v>
+        <v>1.5117187499999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3697,6 +3703,31 @@
       </c>
       <c r="D10" s="6">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45810</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48249E36-DE57-49BB-885F-A2F8936E9E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF93031-B398-4F95-9C83-6265B7B92CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="215">
   <si>
     <t>Data</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>Riordino materiale Remmi</t>
+  </si>
+  <si>
+    <t>Pulizia e riordino ink</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +3535,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,7 +3616,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.72916666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3634,7 +3637,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.093749999999998</v>
+        <v>12.197916666666666</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3677,7 +3680,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.5117187499999998</v>
+        <v>1.5247395833333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3728,6 +3731,20 @@
       </c>
       <c r="D12" s="6">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45814</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF93031-B398-4F95-9C83-6265B7B92CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8DFB5-2F45-49AF-B640-897C29DA6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
   <si>
     <t>Data</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>Pulizia e riordino ink</t>
+  </si>
+  <si>
+    <t>Organizzazione Notion</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3538,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3619,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>0.83333333333333326</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3637,7 +3640,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.197916666666666</v>
+        <v>12.406249999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,7 +3683,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.5247395833333333</v>
+        <v>1.5507812499999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3745,6 +3748,34 @@
       </c>
       <c r="D13" s="6">
         <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45827</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45828</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8DFB5-2F45-49AF-B640-897C29DA6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E2A26-0BDC-4912-81A2-B1A91C1724BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3538,7 +3538,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.0416666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.406249999999998</v>
+        <v>12.489583333333332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.5507812499999998</v>
+        <v>1.5611979166666665</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E2A26-0BDC-4912-81A2-B1A91C1724BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B898E39-2B24-4B3C-A611-04FE0DF7A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="218">
   <si>
     <t>Data</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>Organizzazione Notion</t>
+  </si>
+  <si>
+    <t>Pianificazione comunicazione e creazione identità del gioco</t>
+  </si>
+  <si>
+    <t>Riordino e ricerca informazioni accessibilità e impostazioni gioco</t>
   </si>
 </sst>
 </file>
@@ -1127,17 +1133,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1175,7 +1181,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1265,12 +1271,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1357,12 +1363,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1690,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1782,17 +1788,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1974,25 +1980,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2054,12 +2060,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2251,7 +2257,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2472,19 +2478,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2529,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2810,7 +2816,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3011,7 +3017,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3538,22 +3544,22 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3619,13 +3625,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.125</v>
+        <v>1.3125</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3640,10 +3646,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.489583333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12.677083333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3683,10 +3689,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.5611979166666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5846354166666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3778,30 +3784,55 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>45832</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B898E39-2B24-4B3C-A611-04FE0DF7A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56080538-5E8D-4F05-8765-AC2051BFAB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="221">
   <si>
     <t>Data</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>Riordino e ricerca informazioni accessibilità e impostazioni gioco</t>
+  </si>
+  <si>
+    <t>Ricerca per animazioni</t>
+  </si>
+  <si>
+    <t>Riflessioni per mood generale e audio</t>
+  </si>
+  <si>
+    <t>Ricerca di "mercato" su nome</t>
   </si>
 </sst>
 </file>
@@ -3544,7 +3553,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3634,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.3125</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3646,7 +3655,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.677083333333332</v>
+        <v>12.812499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3689,7 +3698,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.5846354166666665</v>
+        <v>1.6015624999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3798,7 +3807,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3809,21 +3818,51 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>45834</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56080538-5E8D-4F05-8765-AC2051BFAB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B80AF1-EBE4-4B07-A025-97C7240466AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="222">
   <si>
     <t>Data</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>Ricerca di "mercato" su nome</t>
+  </si>
+  <si>
+    <t>Organizzazione lavoro assets grafici</t>
   </si>
 </sst>
 </file>
@@ -1142,17 +1145,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1280,12 +1283,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1372,12 +1375,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1495,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1702,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1797,17 +1800,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1989,25 +1992,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2069,12 +2072,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2266,7 +2269,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2487,19 +2490,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2825,7 +2828,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3026,7 +3029,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3553,22 +3556,22 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3634,13 +3637,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.4479166666666667</v>
+        <v>1.5104166666666667</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3655,10 +3658,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.812499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12.874999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3698,10 +3701,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6015624999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.6093749999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3832,7 +3835,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="12" t="s">
         <v>219</v>
       </c>
@@ -3840,7 +3846,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="12" t="s">
         <v>220</v>
       </c>
@@ -3848,30 +3857,41 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B80AF1-EBE4-4B07-A025-97C7240466AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F5F3E-EB9A-4180-9551-820F65EB823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="223">
   <si>
     <t>Data</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Organizzazione lavoro assets grafici</t>
+  </si>
+  <si>
+    <t>Ricerca e riflessioni su contenuto libro riscrittora</t>
   </si>
 </sst>
 </file>
@@ -1145,17 +1148,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1193,7 +1196,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1283,12 +1286,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1375,12 +1378,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1498,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1705,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1800,17 +1803,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1992,25 +1995,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2072,12 +2075,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2272,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2490,19 +2493,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2828,7 +2831,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3556,22 +3559,22 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3637,13 +3640,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.5104166666666667</v>
+        <v>1.59375</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3658,10 +3661,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.874999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12.958333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3701,10 +3704,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6093749999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6197916666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3868,30 +3871,44 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45839</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F5F3E-EB9A-4180-9551-820F65EB823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDAC60-C3F2-42EB-BD34-033790E9ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="224">
   <si>
     <t>Data</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>Ricerca e riflessioni su contenuto libro riscrittora</t>
+  </si>
+  <si>
+    <t>Studio</t>
   </si>
 </sst>
 </file>
@@ -1148,17 +1151,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1286,12 +1289,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1378,12 +1381,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1501,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1708,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1803,17 +1806,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1995,25 +1998,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2075,12 +2078,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2275,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2493,19 +2496,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2831,7 +2834,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3032,7 +3035,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3559,22 +3562,22 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3640,13 +3643,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.59375</v>
+        <v>1.6770833333333333</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3661,10 +3664,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>12.958333333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.041666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3704,10 +3707,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6197916666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.6302083333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45839</v>
       </c>
@@ -3885,30 +3888,44 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45840</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDAC60-C3F2-42EB-BD34-033790E9ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5C18E-FBE6-4E4C-9080-ED0D6A4534E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="227">
   <si>
     <t>Data</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t>Studio</t>
+  </si>
+  <si>
+    <t>Riflessione con Mattia su Game Design</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Ricerca materiale per animazioni</t>
   </si>
 </sst>
 </file>
@@ -3562,7 +3571,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,7 +3652,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.6770833333333333</v>
+        <v>1.8229166666666667</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3664,7 +3673,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.041666666666666</v>
+        <v>13.187499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,7 +3716,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6302083333333333</v>
+        <v>1.6484374999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,14 +3912,33 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="4">
+        <v>45845</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="4">
+        <v>45846</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E25" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5C18E-FBE6-4E4C-9080-ED0D6A4534E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040537F6-746A-4ABE-9A28-3C1D0E015792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
   <si>
     <t>Data</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>Ricerca materiale per animazioni</t>
+  </si>
+  <si>
+    <t>Coltivabili: riflessioni su design, uso, estetica, e nuove tematiche.</t>
+  </si>
+  <si>
+    <t>Rana: design, meccanica complessiva e uso</t>
   </si>
 </sst>
 </file>
@@ -1160,17 +1166,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1208,7 +1214,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1298,12 +1304,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1390,12 +1396,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1723,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1815,17 +1821,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2007,25 +2013,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2087,12 +2093,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2290,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2505,19 +2511,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2843,7 +2849,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3044,7 +3050,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3570,23 +3576,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3652,13 +3658,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.8229166666666667</v>
+        <v>1.9687500000000002</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3673,10 +3679,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.187499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3716,10 +3722,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6484374999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45839</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45840</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45845</v>
       </c>
@@ -3926,7 +3932,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45846</v>
       </c>
@@ -3941,19 +3947,41 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45848</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\Selania\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040537F6-746A-4ABE-9A28-3C1D0E015792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F96EE-6C31-497B-AC23-C036320F7548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="232">
   <si>
     <t>Data</t>
   </si>
@@ -732,6 +732,15 @@
   </si>
   <si>
     <t>Rana: design, meccanica complessiva e uso</t>
+  </si>
+  <si>
+    <t>Coltivabili: riflessioni veloci su PNG3, 4 e Mentore per generare ultimi coltivabili di massima.</t>
+  </si>
+  <si>
+    <t>Serra: nuovo sfondo + porta + innaffiatoio</t>
+  </si>
+  <si>
+    <t>Ricerca materiali api e alveare</t>
   </si>
 </sst>
 </file>
@@ -3576,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3658,7 +3667,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>1.9687500000000002</v>
+        <v>2.104166666666667</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3679,7 +3688,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.333333333333332</v>
+        <v>13.46875</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3722,7 +3731,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6666666666666665</v>
+        <v>1.68359375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3962,11 +3971,47 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
       <c r="C27" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D27" s="6">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\Selania\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F96EE-6C31-497B-AC23-C036320F7548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA893C-39F1-4054-811B-F63C1EE0B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="233">
   <si>
     <t>Data</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Ricerca materiali api e alveare</t>
+  </si>
+  <si>
+    <t>Lavoro su animazione train stop</t>
   </si>
 </sst>
 </file>
@@ -1175,17 +1178,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1313,12 +1316,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1405,12 +1408,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1830,17 +1833,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2022,25 +2025,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2102,12 +2105,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2302,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2520,19 +2523,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3059,7 +3062,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3585,23 +3588,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3667,13 +3670,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.104166666666667</v>
+        <v>2.1562500000000004</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3688,10 +3691,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.46875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.520833333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3731,10 +3734,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.68359375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.6901041666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45839</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45840</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45845</v>
       </c>
@@ -3941,7 +3944,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45846</v>
       </c>
@@ -3956,7 +3959,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45848</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -4014,19 +4017,27 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA893C-39F1-4054-811B-F63C1EE0B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9D6FF-4E7D-4844-812A-5AEB4A075101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="237">
   <si>
     <t>Data</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t>Lavoro su animazione train stop</t>
+  </si>
+  <si>
+    <t>Animazione train stop</t>
+  </si>
+  <si>
+    <t>Integrazione in ink</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Ricerca assets e montaggio</t>
   </si>
 </sst>
 </file>
@@ -3589,7 +3601,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3682,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.1562500000000004</v>
+        <v>2.2708333333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
@@ -3691,7 +3703,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.520833333333332</v>
+        <v>13.635416666666666</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,7 +3746,7 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.6901041666666665</v>
+        <v>1.7044270833333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4029,15 +4041,45 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45849</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\Selania\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9D6FF-4E7D-4844-812A-5AEB4A075101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEA265-84D6-47F6-9F9D-FB1D77D1126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="239">
   <si>
     <t>Data</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>Ricerca assets e montaggio</t>
+  </si>
+  <si>
+    <t>Creazione apina e alveare</t>
+  </si>
+  <si>
+    <t>Prove con animazione</t>
   </si>
 </sst>
 </file>
@@ -1190,17 +1196,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1238,7 +1244,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1328,12 +1334,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1420,12 +1426,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1546,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1753,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1845,17 +1851,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2037,25 +2043,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2117,12 +2123,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2314,7 +2320,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2535,19 +2541,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2873,7 +2879,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3059,7 +3065,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3074,7 +3080,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3600,23 +3606,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3682,13 +3688,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.2708333333333339</v>
+        <v>2.3645833333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3703,10 +3709,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.635416666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13.729166666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3746,10 +3752,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.7044270833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7161458333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45839</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45840</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45845</v>
       </c>
@@ -3956,7 +3962,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45846</v>
       </c>
@@ -3971,7 +3977,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45848</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -4018,7 +4024,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45849</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>235</v>
       </c>
@@ -4076,10 +4082,32 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\Selania\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEA265-84D6-47F6-9F9D-FB1D77D1126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17BDC5-3058-4718-A263-C677DC0B8141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="241">
   <si>
     <t>Data</t>
   </si>
@@ -762,6 +762,12 @@
   </si>
   <si>
     <t>Prove con animazione</t>
+  </si>
+  <si>
+    <t>Prove movimenti api</t>
+  </si>
+  <si>
+    <t>Nubi: disegno + esercizi</t>
   </si>
 </sst>
 </file>
@@ -1196,17 +1202,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1244,7 +1250,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1334,12 +1340,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1426,12 +1432,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1552,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1759,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1851,17 +1857,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2043,25 +2049,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2123,12 +2129,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2326,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2541,19 +2547,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2879,7 +2885,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3080,7 +3086,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45745</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45746</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>45747</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3606,23 +3612,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F4F0C-333D-4574-BD29-6B02E47A69FC}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45787</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45792</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45794</v>
       </c>
@@ -3688,13 +3694,13 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(D:D)</f>
-        <v>2.3645833333333339</v>
+        <v>2.5208333333333339</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45795</v>
       </c>
@@ -3709,10 +3715,10 @@
       </c>
       <c r="I5" s="18">
         <f>SUM('Prot. 1.0'!F4,'Prot. 1.5'!F4,'Prot. 2.0'!F4,F4)</f>
-        <v>13.729166666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.885416666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45799</v>
       </c>
@@ -3752,10 +3758,10 @@
       </c>
       <c r="I8" s="19">
         <f>I5/8</f>
-        <v>1.7161458333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.7356770833333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45800</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45810</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45814</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45827</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45828</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45832</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45834</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45839</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45840</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45845</v>
       </c>
@@ -3962,7 +3968,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45846</v>
       </c>
@@ -3977,7 +3983,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45848</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45849</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>235</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>16</v>
       </c>
@@ -4104,10 +4110,35 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45850</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
   </sheetData>

--- a/Assets/Notes and Utilities/Ore dedicate.xlsx
+++ b/Assets/Notes and Utilities/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Notes and Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\Selania\Assets\Notes and Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17BDC5-3058-4718-A263-C677DC0B8141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C45EAC-FC89-417F-8EAC-2CDB09D1D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2370" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prot. 1.0" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="245">
   <si>
     <t>Data</t>
   </si>
@@ -768,6 +768,18 @@
   </si>
   <si>
     <t>Nubi: disegno + esercizi</t>
+  </si>
+  <si>
+    <t>Settaggio con Mattia di due box di testo diversi a seconda della necessità</t>
+  </si>
+  <si>
+    <t>Riflessioni e studi su coltivabili e serra (forme, contenuti vari)</t>
+  </si>
+  <si>
+    <t>Settaggio box per nome e ritratto</t>
+  </si>
+  <si>
+    <t>Scrittura, settaggio e correzione codice C# e ink per cambio nome e ritratto</t>
   </si>
 </sst>
 </file>
@@ -1202,17 +1214,17 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -1250,7 +1262,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>2.9687499999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -1340,12 +1352,12 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45648</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45649</v>
       </c>
@@ -1432,12 +1444,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45650</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45652</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45653</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45654</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45655</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45659</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45660</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45661</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45662</v>
       </c>
@@ -1747,7 +1759,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1771,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45297</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45664</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45665</v>
       </c>
@@ -1823,7 +1835,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45666</v>
       </c>
@@ -1857,17 +1869,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45668</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1939,7 @@
         <v>3.5868055555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45670</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1961,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45671</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45672</v>
       </c>
@@ -1985,7 +1997,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45673</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45674</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2036,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45675</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2049,25 +2061,25 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45676</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2115,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45677</v>
       </c>
@@ -2129,12 +2141,12 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45678</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45313</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45314</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45686</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45687</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2338,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45688</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45690</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45691</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45692</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45694</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45695</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45696</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45697</v>
       </c>
@@ -2547,19 +2559,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45699</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>11.364583333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45700</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45701</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2721,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45702</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +2779,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45703</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45704</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45705</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45707</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45708</v>
       </c>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45710</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45711</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45715</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45716</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45717</v>
       </c>
@@ -2999,7 +3011,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45721</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45722</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3060,7 +3072,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45723</v>
       </c>
@@ -3086,7 +3098,7 @@
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45724</v>
       </c>
@@ -3122,7 +3134,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45725</v>
       </c>
@@ -3150,7 +3162,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45726</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45727</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45731</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
         <v>172</v>
       </c>
@@ -3266,7 +3278,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45733</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734</v>
       </c>
@@ -3294,7 +3306,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45740</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45742</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3388,7 +3400,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45743</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -3446,7 +3458,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3480,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45744</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="